--- a/Week 61/Aswathy.xlsx
+++ b/Week 61/Aswathy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milestone Toolkit\Aswathy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\Week 61\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t>Time(hrs)</t>
   </si>
   <si>
-    <t>WEEKLY REPORT(16/2/2019-22/2/2019)</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>WEEKLY REPORT(23/2/2019-01/3/2019)</t>
   </si>
 </sst>
 </file>
@@ -260,7 +260,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -385,9 +384,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -442,7 +439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -565,7 +561,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -709,9 +704,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -766,7 +759,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1111,9 +1103,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1173,7 +1163,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3469,7 +3458,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3470,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3503,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -3514,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0.35</v>
@@ -3528,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
       <c r="D8">
         <v>1.17</v>
@@ -3554,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
@@ -3569,7 +3558,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>25.56</v>
@@ -3652,7 +3641,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="5">
         <f>D15</f>
@@ -3661,7 +3650,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="6">
         <v>2.4500000000000002</v>
@@ -3669,7 +3658,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="6">
         <v>27.48</v>
